--- a/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B2A1C-0BE4-4DCD-BA89-D6BB0D4C6B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2127FC-C773-41A7-ABD5-8E0FB28079EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NO</t>
   </si>
@@ -48,36 +48,15 @@
     <t>BPJS KESEHATAN</t>
   </si>
   <si>
-    <t>INSENTIF</t>
-  </si>
-  <si>
     <t>HARI KERJA</t>
   </si>
   <si>
     <t>TUNJ. JABATAN</t>
   </si>
   <si>
-    <t>TOTAL JAM LEMBUR</t>
-  </si>
-  <si>
-    <t>LEMBUR</t>
-  </si>
-  <si>
-    <t>POT. KOPERASI</t>
-  </si>
-  <si>
     <t>POT. SERAGAM</t>
   </si>
   <si>
-    <t>POT. ABSENSI</t>
-  </si>
-  <si>
-    <t>POT. KASBON</t>
-  </si>
-  <si>
-    <t>POT. ADMIN</t>
-  </si>
-  <si>
     <t>POT. LAIN-LAIN</t>
   </si>
   <si>
@@ -91,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL GAJI BORONGAN </t>
+  </si>
+  <si>
+    <t>POT. PINJAMAN</t>
   </si>
 </sst>
 </file>
@@ -100,16 +82,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -181,14 +156,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,18 +171,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,116 +524,137 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="6"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2127FC-C773-41A7-ABD5-8E0FB28079EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90E293F-C8C7-4DCA-8059-DBF6954F8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,9 +187,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +542,7 @@
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -603,59 +600,6 @@
       <c r="O2" s="2"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90E293F-C8C7-4DCA-8059-DBF6954F8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5564CB9-B6AD-4644-9294-A2477DA8F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
